--- a/词汇/数据库导入/008.-script-=-scrib -=-scrip-写，刻写.xlsx
+++ b/词汇/数据库导入/008.-script-=-scrib -=-scrip-写，刻写.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218">
   <si>
     <t>Word</t>
   </si>
@@ -31,6 +31,3762 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>scrip [skrɪp]</t>
+  </si>
+  <si>
+    <t>scrip</t>
+  </si>
+  <si>
+    <t>script</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>便条；纸条；纸片；临时凭证【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>36593</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【script的缩写】</t>
+  </si>
+  <si>
+    <t>scripting [skriptɪŋ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">v. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为电影（或戏剧等）写剧本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(script</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的现在分词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>59912</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【script写--编写+ing表现在分词】</t>
+  </si>
+  <si>
+    <t>scribe [skraɪb]</t>
+  </si>
+  <si>
+    <t>scrib</t>
+  </si>
+  <si>
+    <t>scribe</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（印刷术发明之前的）抄写员，抄书吏；作家；划线器【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14995</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>45465</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【scrib写--刻写--抄写+e名词后缀】</t>
+  </si>
+  <si>
+    <t>scribal ['skraɪbl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抄写的；抄写员的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>42504</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【scrib写--抄写+al形容词后缀】</t>
+  </si>
+  <si>
+    <t>scriptorium [skrɪp'tɔːrɪəm]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>写字间;缮写室【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>46190</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-script-+or+i+um名词后缀】</t>
+  </si>
+  <si>
+    <t>script [skrɪpt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（一种语言的）书写字母；脚本；手迹【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3307</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>17406</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X7M5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【词根直接表单词】</t>
+  </si>
+  <si>
+    <t>scripted [ˈskrɪptɪd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> v. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为电影（或戏剧等）写剧本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>( script</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的过去式和过去分词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>22929</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ed过去式和过去分词】</t>
+  </si>
+  <si>
+    <t>subscript ['sʌbskrɪpt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下标的，写在下方的，脚注的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下标，脚注，下角数码【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>42835</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【sub-向下+script写--下标】</t>
+  </si>
+  <si>
+    <t>unscripted [ʌnˈskrɪptɪd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不用稿子的，不用剧本的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>27507</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【un-否定+script+ed形容词后缀】</t>
+  </si>
+  <si>
+    <t>scribble [ˈskrɪbl]</t>
+  </si>
+  <si>
+    <t>scribble</t>
+  </si>
+  <si>
+    <t>vt. &amp; vi. 潦草地书写；乱写，胡写；滥写（文学作品等）；[印，纺]粗梳
+n. 潦草书写；乱写；拙劣文字；粗制滥造的文章vi. 乱写，乱涂【词频10079，26813】</t>
+  </si>
+  <si>
+    <t>【scrib(b)写--草写+le动词或名词后缀
+来自scribe写 -le表反复。引申词义乱写，乱画】</t>
+  </si>
+  <si>
+    <t>scribbled [ˈskrɪbəld]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">v. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>潦草的书写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>( scribble</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的过去式和过去分词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乱画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>草草地写【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>34922</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-ed过去式和过去分词】</t>
+  </si>
+  <si>
+    <t>scribbling ['skrɪblɪŋ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乱涂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>胡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>写的文章</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>33579</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-ing动名词后缀】</t>
+  </si>
+  <si>
+    <t>scribbler [ˈskrɪblə(r)]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>潦草写字的人，三流作家，小文人【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>37218</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【er名词后缀，表人】</t>
+  </si>
+  <si>
+    <t>scripture ['skrɪptʃə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>圣经，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手稿【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10772</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【script-写--文字，文章，-ure名词后缀。引申词义经文，经典】</t>
+  </si>
+  <si>
+    <t>scriptural ['skrɪptʃərəl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>圣经的；手稿的；依据圣经的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>17998</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【scripture+-al形容词后缀】</t>
+  </si>
+  <si>
+    <t>scripturally ['skrɪptʃərəli]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据圣经地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>58280</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ly副词后缀】</t>
+  </si>
+  <si>
+    <t>scriptwriter ['skrɪptraɪtə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（电影的）编剧【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>33780</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X10M4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【script编写+writer作者，编剧】</t>
+  </si>
+  <si>
+    <t>rescript ['riːskrɪpt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法令；布告；抄件</t>
+    </r>
+  </si>
+  <si>
+    <t>【re反复+script写--反复抄写--抄件--法令】</t>
+  </si>
+  <si>
+    <t>describe [dɪ'skraɪb]</t>
+  </si>
+  <si>
+    <t>describe</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>描述，形容；描绘【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>568</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【de-向下+script写--记述--描述+e动词后缀--写下来】</t>
+  </si>
+  <si>
+    <t>nondescript [ˈnɒndɪskrɪpt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无明显特征的，难以形容的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>难以形容或归类的人或物【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15207</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【non否定+de向下+script写--无法描述】</t>
+  </si>
+  <si>
+    <t>misdescribe [,mɪsdɪ'skraɪb]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错误的描述</t>
+    </r>
+  </si>
+  <si>
+    <t>【mis错误+describe】</t>
+  </si>
+  <si>
+    <t>descriptor [dɪˈskrɪptə(r)]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>描述符【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【describe(-scrib-==-scipt-写)+or名词后缀，表人】</t>
+  </si>
+  <si>
+    <t>described [dɪsk'raɪbd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被看到的，被发现的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>33462</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【describe+ed形容词后缀，被动】</t>
+  </si>
+  <si>
+    <t>describer [dis'kraibə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>描写者；制图者【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>53337</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-er表人】</t>
+  </si>
+  <si>
+    <t>description [dɪ'skrɪpʃ(ə)n]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>描述，描写；类型；说明书；记述【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2184</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B1M1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【descript+ion名词后缀】</t>
+  </si>
+  <si>
+    <t>descriptive [dɪ'skrɪptɪv]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>描写的，叙述的；描写性的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ive形容词后缀】</t>
+  </si>
+  <si>
+    <t>descriptively [dɪ'skrɪptɪvli]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>叙述地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40290</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>describable [dɪ'skraɪbəbl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可记述的；可描写的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>52523</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【describe+able形容词后缀，表能...的】</t>
+  </si>
+  <si>
+    <t>indescribable [ɪndɪ'skraɪbəb(ə)l]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>难以形容的；莫名其妙的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>22371</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【in-否定+describable】</t>
+  </si>
+  <si>
+    <t>indescribably [,ɪndɪ'skraɪbəbli]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adv.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>难以形容地，无法描述地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40653</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X9M2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>redescription [dɪˈskrɪpʃn]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>描述</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>形容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50083</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【re-反复--强调+description】</t>
+  </si>
+  <si>
+    <t>subscription-based [səbˈskrɪpʃn-beɪst]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于订阅的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50993</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词】</t>
+  </si>
+  <si>
+    <t>self-described ['selfdɪskr'aɪbd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自我描述的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14732</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>46435</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>self-description ['selfdɪskr'ɪpʃn]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自描述【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>35316</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>prescribe [prɪˈskraɪb]</t>
+  </si>
+  <si>
+    <t>prescribe</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指定，规定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指定，规定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">vi. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建立规定，法律或指示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开处方，给医</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5435</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【pre-在前，早于，预先-scribe-写--商定建立好的规则+e动词后缀，词源同describe,引申诸相关词义】</t>
+  </si>
+  <si>
+    <t>prescribed [prɪ'skraɪbd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规定的，法定的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9916</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ed形容词后缀】</t>
+  </si>
+  <si>
+    <t>prescribing [priˈskraibɪŋ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> v. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开药方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>( prescribe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的现在分词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指定遵守【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>35718</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ing现在分词】</t>
+  </si>
+  <si>
+    <t>prescription [prɪ'skrɪpʃ(ə)n]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处方【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3332</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B2M1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【prescript+ion名词后缀】</t>
+  </si>
+  <si>
+    <t>prescription-only[prɪ'skrɪpʃ(ə)n-ˈəʊnli]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处方【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56718</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>prescription-drug[prɪ'skrɪpʃ(ə)n-drʌg]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处方药【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>33213</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>prescriptive [prɪˈskrɪptɪv]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规定的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指定的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>约定俗成的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>惯例的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>55694</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【prescript+ive形容词后缀】</t>
+  </si>
+  <si>
+    <t>transcribe [træn'skraɪb]</t>
+  </si>
+  <si>
+    <t>transcribe</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转录；抄写【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9676</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【trans-通过，改变+scrib写+e动词后缀】</t>
+  </si>
+  <si>
+    <t>transcribed[trænˈskraɪbd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> v. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>transcribe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的过去式和过去分词【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40948</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>transcriber [træns'kraibə]</t>
+  </si>
+  <si>
+    <r>
+      <t>n. [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息转换器；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转录器；誊写员【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>37503</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【er名词后缀，表物】</t>
+  </si>
+  <si>
+    <t>transcript ['trænskrɪpt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成绩单；抄本，副本【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6287</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【trans-+script写--抄本，副本】</t>
+  </si>
+  <si>
+    <t>transcription [trænˈskrɪpʃn]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抄本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抄写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>录音</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>翻译【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14690</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ion名词后缀】</t>
+  </si>
+  <si>
+    <t>transcriptional [trænˈskrɪpʃnəl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转录的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>58854</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-al名词或形容词后缀】</t>
+  </si>
+  <si>
+    <t>transcriptase [træn'skrɪpteɪz]</t>
+  </si>
+  <si>
+    <r>
+      <t>n. [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转录酶【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>42864</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【transcript+ase名词后缀[生化]】</t>
+  </si>
+  <si>
+    <t>inscribe [ɪn'skraɪb]</t>
+  </si>
+  <si>
+    <t>inscribe</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">v. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>题写，刻写；题献；铭记【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9398</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X9M3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【in向内+scrib写--刻写+e动词后缀】</t>
+  </si>
+  <si>
+    <t>inscribed [ɪn'skraɪbd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> v. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>写，刻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>( inscribe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的过去式和过去分词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内接【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19954</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>conscript [kənˈskrɪpt]</t>
+  </si>
+  <si>
+    <t>conscript</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被征入伍者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被征入伍的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>征兵【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20137</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30841</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【con-强调+script写--签署服兵役，来自于法语，词源同desciption】</t>
+  </si>
+  <si>
+    <t>conscription [kən'skrɪpʃ(ə)n]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>征兵；征兵制度；征用【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20720</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>conscribe [kən'skraɪb]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>征召入伍</t>
+    </r>
+  </si>
+  <si>
+    <t>【con-强调+scrib写-签署服兵役+e动词后缀】</t>
+  </si>
+  <si>
+    <t>ascribe [ə'skraɪb]</t>
+  </si>
+  <si>
+    <t>ascribe</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>归因于；归咎于【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11183</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【a-表远离+-scribe-写--一边写--一边倒--归咎于+e动词后缀
+scribe拉丁语 scribere(写)原始印欧语skribh(切割，雕刻)古代人没有纸笔，书写方式主要是以树木，泥板等材料上刻字，所以scribe即表示“铭刻”，也表示“书写”】</t>
+  </si>
+  <si>
+    <t>ascribed [ə'skraɪbd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>归于【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>43231</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>ascription [ə'skrɪpʃ(ə)n]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>归属；归因；赞美上帝的话【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>35845</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>ascriptive [ə'skrɪptɪv]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>涉及原因归属问题的；归属性的；可归因于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>55849</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>proscribe [prəˈskraɪb]</t>
+  </si>
+  <si>
+    <t>proscribe</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正式宣布（某事物）有危险或被禁止【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>23334</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【pro-在前，提前+-scirb-写--提前约定好的--规定--禁止，词源同describe,prescribe,说在前面的丑话，引申词义禁令，禁止】</t>
+  </si>
+  <si>
+    <t>proscribed [prəus'kraib]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被禁止使用或提及【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>36778</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【pro-向前 -ed形容词后缀】</t>
+  </si>
+  <si>
+    <t>proscription [prə(ʊ)'skrɪpʃ(ə)n]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>禁止；放逐；剥夺人权【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>29133</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>postscript ['pəʊs(t)skrɪpt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>附言；又及【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>26594</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【post-后+script】</t>
+  </si>
+  <si>
+    <t>typescript ['taɪpskrɪpt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打字文件【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>33498</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>superscript ['suːpəskrɪpt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标在上方的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上标【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>43232</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【super-在上+script】</t>
+  </si>
+  <si>
+    <t>manuscript ['mænjʊskrɪpt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图情</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手稿；原稿；手稿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手写的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5168</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X8M2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-manu-手+script写】</t>
+  </si>
+  <si>
+    <t>subscribe [səb'skraɪb]</t>
+  </si>
+  <si>
+    <t>subscribe</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>签署；赞成；捐助【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8124</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【sub-向下+scrib写--签署+e动词后缀】</t>
+  </si>
+  <si>
+    <t>subscriber [səb'skraɪbə(r)]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订户；签署者；捐献者【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7322</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>subscription [səb'skrɪpʃ(ə)n]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>捐献；订阅；订金；签署【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8457</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【subscript+ion名词后缀】</t>
+  </si>
+  <si>
+    <t>inscription [ɪn'skrɪpʃ(ə)n]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>题词；铭文；刻印【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9164</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>reinscription [rɪn'skrɪpʃ(ə)n]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重刻铭文；重题题词【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>55825</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【re-再次，重新+inscription】</t>
+  </si>
+  <si>
+    <t>circumscribe ['sɜːkəmskraɪb]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外切，外接【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>17720</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-circum-圆+scrib写--刻写--环切+e动词后缀】</t>
+  </si>
+  <si>
+    <t>circumscribed ['sɜ:kəmskraɪbd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>局限的：受限制或限于有限空间的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30733</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>well-circumscribed ['wels'ɜ:kəmskraɪbd]</t>
+  </si>
+  <si>
+    <r>
+      <t>adj. [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>边界清楚的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>59488</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>circumscription [,sɜːkəm'skrɪpʃən]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>界限；划界；定义【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>44906</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -38,12 +3794,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,45 +3808,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,6 +3871,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -125,17 +3891,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,38 +3906,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -196,11 +3921,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -212,13 +3991,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,25 +4009,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,7 +4027,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +4045,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,7 +4081,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,43 +4153,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,49 +4165,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,11 +4200,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,17 +4230,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,189 +4297,189 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1026,15 +4829,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="37" customWidth="1"/>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="54.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1052,6 +4859,1232 @@
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" ht="67.5" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" ht="27" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" ht="27" spans="1:5">
+      <c r="A31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" spans="1:5">
+      <c r="A36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" spans="1:5">
+      <c r="A52" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" ht="54" spans="1:5">
+      <c r="A55" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
